--- a/TestInputs/inputSheetReg2.xlsx
+++ b/TestInputs/inputSheetReg2.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="530" uniqueCount="107">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="530" uniqueCount="110">
   <si>
     <t>TestCaseId</t>
   </si>
@@ -173,18 +173,9 @@
     <t>Wait for Table Icon</t>
   </si>
   <si>
-    <t>//i[@class='iconBg tableGridIcon']</t>
-  </si>
-  <si>
     <t>Click on table icon to change view</t>
   </si>
   <si>
-    <t>Click On ID</t>
-  </si>
-  <si>
-    <t>//input[@type='checkbox'][@value='ID']</t>
-  </si>
-  <si>
     <t>Click On Type</t>
   </si>
   <si>
@@ -339,6 +330,24 @@
   </si>
   <si>
     <t>Type A question AT</t>
+  </si>
+  <si>
+    <t>//a[@class='icon tableGridIcon dropdown-toggle']</t>
+  </si>
+  <si>
+    <t>(//div[text()='Question Description']/following::iframe)[1]</t>
+  </si>
+  <si>
+    <t>(//div[text()='Question Description']/following::iframe)[2]</t>
+  </si>
+  <si>
+    <t>Question description</t>
+  </si>
+  <si>
+    <t xml:space="preserve">I am here </t>
+  </si>
+  <si>
+    <t>typeText</t>
   </si>
 </sst>
 </file>
@@ -758,7 +767,7 @@
         <v>32</v>
       </c>
       <c r="C2" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
@@ -766,10 +775,10 @@
         <v>33</v>
       </c>
       <c r="B3" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="C3" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
@@ -777,10 +786,10 @@
         <v>34</v>
       </c>
       <c r="B4" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="C4" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
@@ -788,10 +797,10 @@
         <v>35</v>
       </c>
       <c r="B5" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="C5" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
     </row>
   </sheetData>
@@ -901,7 +910,7 @@
         <v>19</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
@@ -974,7 +983,7 @@
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="B10" t="s">
         <v>17</v>
@@ -983,7 +992,7 @@
         <v>29</v>
       </c>
       <c r="D10" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="E10" s="1">
         <v>20</v>
@@ -1114,7 +1123,7 @@
         <v>19</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
@@ -1188,7 +1197,7 @@
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="B10" t="s">
         <v>17</v>
@@ -1197,7 +1206,7 @@
         <v>29</v>
       </c>
       <c r="D10" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="E10" s="1">
         <v>20</v>
@@ -1205,7 +1214,7 @@
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="B11" t="s">
         <v>28</v>
@@ -1214,7 +1223,7 @@
         <v>29</v>
       </c>
       <c r="D11" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="E11" s="1" t="s">
         <v>12</v>
@@ -1316,10 +1325,10 @@
         <v>29</v>
       </c>
       <c r="D17" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="E17" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
@@ -1365,8 +1374,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F51"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A33" workbookViewId="0">
-      <selection activeCell="A52" sqref="A52"/>
+    <sheetView tabSelected="1" topLeftCell="A29" workbookViewId="0">
+      <selection activeCell="E51" sqref="E51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1374,7 +1383,7 @@
     <col min="1" max="1" width="31.42578125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="15.28515625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="12.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="45" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="54" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="39.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1463,7 +1472,7 @@
         <v>19</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
@@ -1613,7 +1622,7 @@
         <v>29</v>
       </c>
       <c r="D14" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="E14" s="1" t="s">
         <v>12</v>
@@ -1681,7 +1690,7 @@
         <v>29</v>
       </c>
       <c r="D18" t="s">
-        <v>51</v>
+        <v>104</v>
       </c>
       <c r="E18" s="1">
         <v>20</v>
@@ -1689,7 +1698,7 @@
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B19" t="s">
         <v>28</v>
@@ -1698,7 +1707,7 @@
         <v>29</v>
       </c>
       <c r="D19" t="s">
-        <v>51</v>
+        <v>104</v>
       </c>
       <c r="E19" s="1" t="s">
         <v>12</v>
@@ -1723,7 +1732,7 @@
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B21" t="s">
         <v>28</v>
@@ -1732,7 +1741,7 @@
         <v>29</v>
       </c>
       <c r="D21" t="s">
-        <v>54</v>
+        <v>85</v>
       </c>
       <c r="E21" s="1" t="s">
         <v>12</v>
@@ -1757,7 +1766,7 @@
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B23" t="s">
         <v>28</v>
@@ -1766,7 +1775,7 @@
         <v>29</v>
       </c>
       <c r="D23" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="E23" s="1" t="s">
         <v>12</v>
@@ -1791,7 +1800,7 @@
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="B25" t="s">
         <v>28</v>
@@ -1800,7 +1809,7 @@
         <v>29</v>
       </c>
       <c r="D25" t="s">
-        <v>89</v>
+        <v>104</v>
       </c>
       <c r="E25" s="1" t="s">
         <v>12</v>
@@ -1820,12 +1829,12 @@
         <v>12</v>
       </c>
       <c r="E26" s="1">
-        <v>2000</v>
+        <v>3000</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B27" t="s">
         <v>28</v>
@@ -1834,7 +1843,7 @@
         <v>29</v>
       </c>
       <c r="D27" t="s">
-        <v>51</v>
+        <v>104</v>
       </c>
       <c r="E27" s="1" t="s">
         <v>12</v>
@@ -1854,7 +1863,7 @@
         <v>12</v>
       </c>
       <c r="E28" s="1">
-        <v>3000</v>
+        <v>2000</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.25">
@@ -1868,7 +1877,7 @@
         <v>29</v>
       </c>
       <c r="D29" t="s">
-        <v>51</v>
+        <v>85</v>
       </c>
       <c r="E29" s="1" t="s">
         <v>12</v>
@@ -1876,197 +1885,197 @@
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>53</v>
+        <v>31</v>
       </c>
       <c r="B30" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="C30" t="s">
-        <v>29</v>
+        <v>12</v>
       </c>
       <c r="D30" t="s">
-        <v>54</v>
-      </c>
-      <c r="E30" s="1" t="s">
-        <v>12</v>
+        <v>12</v>
+      </c>
+      <c r="E30" s="1">
+        <v>2000</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>31</v>
+        <v>53</v>
       </c>
       <c r="B31" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="C31" t="s">
-        <v>12</v>
+        <v>29</v>
       </c>
       <c r="D31" t="s">
-        <v>12</v>
-      </c>
-      <c r="E31" s="1">
-        <v>2000</v>
+        <v>86</v>
+      </c>
+      <c r="E31" s="1" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>55</v>
+        <v>31</v>
       </c>
       <c r="B32" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="C32" t="s">
-        <v>29</v>
+        <v>12</v>
       </c>
       <c r="D32" t="s">
-        <v>88</v>
-      </c>
-      <c r="E32" s="1" t="s">
-        <v>12</v>
+        <v>12</v>
+      </c>
+      <c r="E32" s="1">
+        <v>3000</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>31</v>
+        <v>54</v>
       </c>
       <c r="B33" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="C33" t="s">
-        <v>12</v>
+        <v>29</v>
       </c>
       <c r="D33" t="s">
-        <v>12</v>
-      </c>
-      <c r="E33" s="1">
-        <v>2000</v>
+        <v>47</v>
+      </c>
+      <c r="E33" s="1" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>56</v>
+        <v>31</v>
       </c>
       <c r="B34" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="C34" t="s">
-        <v>29</v>
+        <v>12</v>
       </c>
       <c r="D34" t="s">
-        <v>89</v>
-      </c>
-      <c r="E34" s="1" t="s">
-        <v>12</v>
+        <v>12</v>
+      </c>
+      <c r="E34" s="1">
+        <v>4000</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>31</v>
+        <v>71</v>
       </c>
       <c r="B35" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="C35" t="s">
-        <v>12</v>
+        <v>29</v>
       </c>
       <c r="D35" t="s">
-        <v>12</v>
-      </c>
-      <c r="E35" s="1">
-        <v>3000</v>
+        <v>72</v>
+      </c>
+      <c r="E35" s="1" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>57</v>
+        <v>31</v>
       </c>
       <c r="B36" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="C36" t="s">
-        <v>29</v>
+        <v>12</v>
       </c>
       <c r="D36" t="s">
-        <v>47</v>
-      </c>
-      <c r="E36" s="1" t="s">
-        <v>12</v>
+        <v>12</v>
+      </c>
+      <c r="E36" s="1">
+        <v>4000</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>31</v>
+        <v>73</v>
       </c>
       <c r="B37" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="C37" t="s">
-        <v>12</v>
+        <v>29</v>
       </c>
       <c r="D37" t="s">
-        <v>12</v>
-      </c>
-      <c r="E37" s="1">
-        <v>4000</v>
+        <v>87</v>
+      </c>
+      <c r="E37" s="1" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>74</v>
+        <v>31</v>
       </c>
       <c r="B38" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="C38" t="s">
-        <v>29</v>
+        <v>12</v>
       </c>
       <c r="D38" t="s">
-        <v>75</v>
-      </c>
-      <c r="E38" s="1" t="s">
-        <v>12</v>
+        <v>12</v>
+      </c>
+      <c r="E38" s="1">
+        <v>2000</v>
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>31</v>
+        <v>22</v>
       </c>
       <c r="B39" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="C39" t="s">
-        <v>12</v>
+        <v>29</v>
       </c>
       <c r="D39" t="s">
-        <v>12</v>
-      </c>
-      <c r="E39" s="1">
-        <v>4000</v>
+        <v>99</v>
+      </c>
+      <c r="E39" s="1" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>76</v>
+        <v>31</v>
       </c>
       <c r="B40" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="C40" t="s">
-        <v>29</v>
+        <v>12</v>
       </c>
       <c r="D40" t="s">
-        <v>90</v>
-      </c>
-      <c r="E40" s="1" t="s">
-        <v>12</v>
+        <v>12</v>
+      </c>
+      <c r="E40" s="1">
+        <v>3000</v>
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="B41" t="s">
-        <v>23</v>
+        <v>37</v>
       </c>
       <c r="C41" t="s">
         <v>12</v>
@@ -2075,32 +2084,32 @@
         <v>12</v>
       </c>
       <c r="E41" s="1">
-        <v>2000</v>
+        <v>460</v>
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>22</v>
+        <v>31</v>
       </c>
       <c r="B42" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="C42" t="s">
-        <v>29</v>
+        <v>12</v>
       </c>
       <c r="D42" t="s">
-        <v>102</v>
-      </c>
-      <c r="E42" s="1" t="s">
-        <v>12</v>
+        <v>12</v>
+      </c>
+      <c r="E42" s="1">
+        <v>2000</v>
       </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="B43" t="s">
-        <v>23</v>
+        <v>37</v>
       </c>
       <c r="C43" t="s">
         <v>12</v>
@@ -2109,15 +2118,15 @@
         <v>12</v>
       </c>
       <c r="E43" s="1">
-        <v>3000</v>
+        <v>-560</v>
       </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="B44" t="s">
-        <v>37</v>
+        <v>23</v>
       </c>
       <c r="C44" t="s">
         <v>12</v>
@@ -2126,15 +2135,15 @@
         <v>12</v>
       </c>
       <c r="E44" s="1">
-        <v>460</v>
+        <v>2000</v>
       </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>31</v>
+        <v>96</v>
       </c>
       <c r="B45" t="s">
-        <v>23</v>
+        <v>97</v>
       </c>
       <c r="C45" t="s">
         <v>12</v>
@@ -2142,16 +2151,16 @@
       <c r="D45" t="s">
         <v>12</v>
       </c>
-      <c r="E45" s="1">
-        <v>2000</v>
+      <c r="E45" t="s">
+        <v>98</v>
       </c>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="B46" t="s">
-        <v>37</v>
+        <v>23</v>
       </c>
       <c r="C46" t="s">
         <v>12</v>
@@ -2160,32 +2169,32 @@
         <v>12</v>
       </c>
       <c r="E46" s="1">
-        <v>-560</v>
+        <v>4000</v>
       </c>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>31</v>
+        <v>102</v>
       </c>
       <c r="B47" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C47" t="s">
-        <v>12</v>
+        <v>29</v>
       </c>
       <c r="D47" t="s">
-        <v>12</v>
-      </c>
-      <c r="E47" s="1">
-        <v>2000</v>
+        <v>101</v>
+      </c>
+      <c r="E47" t="s">
+        <v>103</v>
       </c>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>99</v>
+        <v>31</v>
       </c>
       <c r="B48" t="s">
-        <v>100</v>
+        <v>23</v>
       </c>
       <c r="C48" t="s">
         <v>12</v>
@@ -2193,59 +2202,59 @@
       <c r="D48" t="s">
         <v>12</v>
       </c>
-      <c r="E48" t="s">
-        <v>101</v>
+      <c r="E48" s="1">
+        <v>5000</v>
       </c>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>31</v>
+        <v>102</v>
       </c>
       <c r="B49" t="s">
-        <v>23</v>
+        <v>109</v>
       </c>
       <c r="C49" t="s">
-        <v>12</v>
+        <v>29</v>
       </c>
       <c r="D49" t="s">
-        <v>12</v>
-      </c>
-      <c r="E49" s="1">
-        <v>4000</v>
+        <v>105</v>
+      </c>
+      <c r="E49" t="s">
+        <v>108</v>
       </c>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>105</v>
+        <v>31</v>
       </c>
       <c r="B50" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C50" t="s">
-        <v>29</v>
+        <v>12</v>
       </c>
       <c r="D50" t="s">
-        <v>104</v>
-      </c>
-      <c r="E50" t="s">
-        <v>106</v>
+        <v>12</v>
+      </c>
+      <c r="E50" s="1">
+        <v>4000</v>
       </c>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>31</v>
+        <v>102</v>
       </c>
       <c r="B51" t="s">
-        <v>23</v>
+        <v>109</v>
       </c>
       <c r="C51" t="s">
-        <v>12</v>
+        <v>29</v>
       </c>
       <c r="D51" t="s">
-        <v>12</v>
-      </c>
-      <c r="E51" s="1">
-        <v>2000</v>
+        <v>106</v>
+      </c>
+      <c r="E51" t="s">
+        <v>107</v>
       </c>
     </row>
   </sheetData>
@@ -2352,7 +2361,7 @@
         <v>19</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
@@ -2408,7 +2417,7 @@
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="B9" t="s">
         <v>23</v>
@@ -2425,7 +2434,7 @@
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="B10" t="s">
         <v>28</v>
@@ -2434,7 +2443,7 @@
         <v>29</v>
       </c>
       <c r="D10" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="E10" s="1" t="s">
         <v>12</v>
@@ -2442,7 +2451,7 @@
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="B11" t="s">
         <v>23</v>
@@ -2459,7 +2468,7 @@
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="B12" t="s">
         <v>21</v>
@@ -2471,7 +2480,7 @@
         <v>47</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
@@ -2493,7 +2502,7 @@
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="B14" t="s">
         <v>28</v>
@@ -2502,7 +2511,7 @@
         <v>29</v>
       </c>
       <c r="D14" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="E14" s="1" t="s">
         <v>12</v>
@@ -2527,7 +2536,7 @@
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="B16" t="s">
         <v>28</v>
@@ -2536,7 +2545,7 @@
         <v>29</v>
       </c>
       <c r="D16" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="E16" s="1" t="s">
         <v>12</v>
@@ -2561,7 +2570,7 @@
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="B18" t="s">
         <v>28</v>
@@ -2570,7 +2579,7 @@
         <v>29</v>
       </c>
       <c r="D18" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="E18" s="1" t="s">
         <v>12</v>
@@ -2595,7 +2604,7 @@
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="B20" t="s">
         <v>28</v>
@@ -2604,7 +2613,7 @@
         <v>29</v>
       </c>
       <c r="D20" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="E20" s="1" t="s">
         <v>12</v>
@@ -2629,7 +2638,7 @@
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="B22" t="s">
         <v>28</v>
@@ -2638,7 +2647,7 @@
         <v>29</v>
       </c>
       <c r="D22" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="E22" s="1" t="s">
         <v>12</v>
@@ -2663,7 +2672,7 @@
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="B24" t="s">
         <v>28</v>
@@ -2672,7 +2681,7 @@
         <v>29</v>
       </c>
       <c r="D24" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="E24" s="1" t="s">
         <v>12</v>
@@ -2697,7 +2706,7 @@
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="B26" t="s">
         <v>28</v>
@@ -2706,7 +2715,7 @@
         <v>29</v>
       </c>
       <c r="D26" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="E26" s="1" t="s">
         <v>12</v>
@@ -2731,7 +2740,7 @@
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="B28" t="s">
         <v>28</v>
@@ -2740,7 +2749,7 @@
         <v>29</v>
       </c>
       <c r="D28" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="E28" s="1" t="s">
         <v>12</v>
@@ -2765,7 +2774,7 @@
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="B30" t="s">
         <v>28</v>
@@ -2774,7 +2783,7 @@
         <v>29</v>
       </c>
       <c r="D30" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="E30" s="1" t="s">
         <v>12</v>
